--- a/mbs-perturbation/chain/knn/chain-knn-results.xlsx
+++ b/mbs-perturbation/chain/knn/chain-knn-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7619047619047619</v>
+        <v>0.7748917748917749</v>
       </c>
     </row>
     <row r="3">
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4804347826086957</v>
+        <v>0.4760869565217392</v>
       </c>
     </row>
     <row r="4">
@@ -514,7 +514,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6507246376811594</v>
+        <v>0.6260869565217391</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         <v>0.8</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8094202898550723</v>
+        <v>0.8297101449275361</v>
       </c>
     </row>
     <row r="6">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.2804597701149425</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2266666666666667</v>
+        <v>0.2516666666666666</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6404968944099378</v>
+        <v>0.6413551665725579</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/chain/knn/chain-knn-results.xlsx
+++ b/mbs-perturbation/chain/knn/chain-knn-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.06896551724137931</v>
+        <v>0.1585365853658537</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="D2" t="n">
-        <v>0.125</v>
+        <v>0.2680412371134021</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7748917748917749</v>
+        <v>0.8708754208754208</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.5714285714285715</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4760869565217392</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.125</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6260869565217391</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -527,13 +527,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8297101449275361</v>
+        <v>0.8169191919191919</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5</v>
+        <v>0.6046176046176045</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2804597701149425</v>
+        <v>0.6317073170731706</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3952380952380953</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2516666666666666</v>
+        <v>0.3494157008388295</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6413551665725579</v>
+        <v>0.8584824434824434</v>
       </c>
     </row>
   </sheetData>
